--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>541.8926367234415</v>
+        <v>693.4562601107899</v>
       </c>
       <c r="R2">
-        <v>541.8926367234415</v>
+        <v>6241.106340997109</v>
       </c>
       <c r="S2">
-        <v>0.02215916411671152</v>
+        <v>0.02370015812184598</v>
       </c>
       <c r="T2">
-        <v>0.02215916411671152</v>
+        <v>0.02370015812184599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>2727.981270961595</v>
+        <v>2822.654352503516</v>
       </c>
       <c r="R3">
-        <v>2727.981270961595</v>
+        <v>25403.88917253165</v>
       </c>
       <c r="S3">
-        <v>0.1115530653010224</v>
+        <v>0.09646946509209141</v>
       </c>
       <c r="T3">
-        <v>0.1115530653010224</v>
+        <v>0.09646946509209144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>2783.962907689842</v>
+        <v>3285.202502476766</v>
       </c>
       <c r="R4">
-        <v>2783.962907689842</v>
+        <v>29566.82252229089</v>
       </c>
       <c r="S4">
-        <v>0.1138422757307564</v>
+        <v>0.1122779088598093</v>
       </c>
       <c r="T4">
-        <v>0.1138422757307564</v>
+        <v>0.1122779088598093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>821.6938329081402</v>
+        <v>926.8704654792978</v>
       </c>
       <c r="R5">
-        <v>821.6938329081402</v>
+        <v>8341.834189313679</v>
       </c>
       <c r="S5">
-        <v>0.03360084131645771</v>
+        <v>0.03167752294401206</v>
       </c>
       <c r="T5">
-        <v>0.03360084131645771</v>
+        <v>0.03167752294401206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>208.6279006262666</v>
+        <v>259.7008193435801</v>
       </c>
       <c r="R6">
-        <v>208.6279006262666</v>
+        <v>2337.30737409222</v>
       </c>
       <c r="S6">
-        <v>0.008531246922371111</v>
+        <v>0.008875758770758605</v>
       </c>
       <c r="T6">
-        <v>0.008531246922371111</v>
+        <v>0.008875758770758609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>1050.268940633259</v>
+        <v>1057.089956837033</v>
       </c>
       <c r="R7">
-        <v>1050.268940633259</v>
+        <v>9513.809611533301</v>
       </c>
       <c r="S7">
-        <v>0.0429477727597445</v>
+        <v>0.03612801638282192</v>
       </c>
       <c r="T7">
-        <v>0.0429477727597445</v>
+        <v>0.03612801638282193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>1071.821791793695</v>
+        <v>1230.315206133534</v>
       </c>
       <c r="R8">
-        <v>1071.821791793695</v>
+        <v>11072.8368552018</v>
       </c>
       <c r="S8">
-        <v>0.04382911554553123</v>
+        <v>0.04204831162735159</v>
       </c>
       <c r="T8">
-        <v>0.04382911554553123</v>
+        <v>0.0420483116273516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>316.3509664086194</v>
+        <v>347.1149272945956</v>
       </c>
       <c r="R9">
-        <v>316.3509664086194</v>
+        <v>3124.034345651361</v>
       </c>
       <c r="S9">
-        <v>0.01293627650214138</v>
+        <v>0.01186329857635239</v>
       </c>
       <c r="T9">
-        <v>0.01293627650214138</v>
+        <v>0.01186329857635239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>1060.873947499007</v>
+        <v>1510.428561621046</v>
       </c>
       <c r="R10">
-        <v>1060.873947499007</v>
+        <v>13593.85705458941</v>
       </c>
       <c r="S10">
-        <v>0.04338143446996423</v>
+        <v>0.05162170680592314</v>
       </c>
       <c r="T10">
-        <v>0.04338143446996423</v>
+        <v>0.05162170680592316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>5340.622963853595</v>
+        <v>6148.070179544023</v>
       </c>
       <c r="R11">
-        <v>5340.622963853595</v>
+        <v>55332.6316158962</v>
       </c>
       <c r="S11">
-        <v>0.2183896453309951</v>
+        <v>0.2101217391506711</v>
       </c>
       <c r="T11">
-        <v>0.2183896453309951</v>
+        <v>0.2101217391506712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>5450.219322834315</v>
+        <v>7155.553963356072</v>
       </c>
       <c r="R12">
-        <v>5450.219322834315</v>
+        <v>64399.98567020465</v>
       </c>
       <c r="S12">
-        <v>0.2228712779287955</v>
+        <v>0.2445543722596814</v>
       </c>
       <c r="T12">
-        <v>0.2228712779287955</v>
+        <v>0.2445543722596815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>1608.646290939977</v>
+        <v>2018.831906945737</v>
       </c>
       <c r="R13">
-        <v>1608.646290939977</v>
+        <v>18169.48716251163</v>
       </c>
       <c r="S13">
-        <v>0.06578103253480916</v>
+        <v>0.06899733720537414</v>
       </c>
       <c r="T13">
-        <v>0.06578103253480916</v>
+        <v>0.06899733720537415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H14">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>115.9835413450701</v>
+        <v>161.898942597135</v>
       </c>
       <c r="R14">
-        <v>115.9835413450701</v>
+        <v>1457.090483374215</v>
       </c>
       <c r="S14">
-        <v>0.004742818324756962</v>
+        <v>0.005533197636284577</v>
       </c>
       <c r="T14">
-        <v>0.004742818324756962</v>
+        <v>0.005533197636284579</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H15">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>583.8812102011057</v>
+        <v>658.995788594525</v>
       </c>
       <c r="R15">
-        <v>583.8812102011057</v>
+        <v>5930.962097350725</v>
       </c>
       <c r="S15">
-        <v>0.02387616786923348</v>
+        <v>0.02252240738128973</v>
       </c>
       <c r="T15">
-        <v>0.02387616786923348</v>
+        <v>0.02252240738128974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H16">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>595.8631934169969</v>
+        <v>766.9853773956501</v>
       </c>
       <c r="R16">
-        <v>595.8631934169969</v>
+        <v>6902.868396560851</v>
       </c>
       <c r="S16">
-        <v>0.02436613712611438</v>
+        <v>0.02621315253324913</v>
       </c>
       <c r="T16">
-        <v>0.02436613712611438</v>
+        <v>0.02621315253324914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H17">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>175.8705584529449</v>
+        <v>216.3933861692134</v>
       </c>
       <c r="R17">
-        <v>175.8705584529449</v>
+        <v>1947.54047552292</v>
       </c>
       <c r="S17">
-        <v>0.007191728220594823</v>
+        <v>0.00739564665248342</v>
       </c>
       <c r="T17">
-        <v>0.007191728220594823</v>
+        <v>0.007395646652483423</v>
       </c>
     </row>
   </sheetData>
